--- a/data/trans_dic/DCD_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2563205569199137</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3932993480132388</v>
+        <v>0.3932993480132387</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3324283525095593</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2173904884493259</v>
+        <v>0.2176493566703954</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3629248096608328</v>
+        <v>0.3603341227227194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3057349589374361</v>
+        <v>0.3095427036008988</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.295005913381401</v>
+        <v>0.2995544323064084</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4295643069880895</v>
+        <v>0.4277782795494977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3589472134755708</v>
+        <v>0.3604912119507238</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.295429828022525</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2271252033525199</v>
+        <v>0.2271252033525198</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1261066304003159</v>
+        <v>0.1253502568295378</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2723908679880445</v>
+        <v>0.2722476275259439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.211202705316965</v>
+        <v>0.211066343204055</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1700049895059774</v>
+        <v>0.169571876819591</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.318417090049274</v>
+        <v>0.3206219044592478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2438469242157183</v>
+        <v>0.244855667564338</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.09911568414821252</v>
+        <v>0.09911568414821251</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2259873762506017</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08402291612666012</v>
+        <v>0.08348978858170855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.203603766759457</v>
+        <v>0.2056949937237826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.147247660754686</v>
+        <v>0.1484524966811258</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1176995091828385</v>
+        <v>0.1195342968006132</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2464123487924985</v>
+        <v>0.2518277903782851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1780239810434589</v>
+        <v>0.1783407571593305</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09800134687838213</v>
+        <v>0.09993520169547659</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2226935808616322</v>
+        <v>0.2229337217606699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1653618896574534</v>
+        <v>0.1656130635020942</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1417039149959987</v>
+        <v>0.1406567037475227</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.274852057104336</v>
+        <v>0.2760422369753736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2008812575018731</v>
+        <v>0.198693805340113</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1300381149291566</v>
+        <v>0.1295099013218</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2687007867988636</v>
+        <v>0.2667597056434804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2027051076338783</v>
+        <v>0.2044543355245712</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1524595220831118</v>
+        <v>0.1522115466685176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2932769467153504</v>
+        <v>0.292260580554413</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2213305399109685</v>
+        <v>0.221848372332816</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>108421</v>
+        <v>108550</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>226313</v>
+        <v>224697</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>343132</v>
+        <v>347406</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>147131</v>
+        <v>149399</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>267868</v>
+        <v>266754</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>402854</v>
+        <v>404586</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>121080</v>
+        <v>120353</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>303947</v>
+        <v>303787</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>438454</v>
+        <v>438171</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>163228</v>
+        <v>162812</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>355305</v>
+        <v>357766</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>506223</v>
+        <v>508317</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>87928</v>
+        <v>87370</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>213304</v>
+        <v>215495</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>308354</v>
+        <v>310877</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>123170</v>
+        <v>125090</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>258152</v>
+        <v>263825</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>372804</v>
+        <v>373467</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>95642</v>
+        <v>97530</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>202728</v>
+        <v>202947</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>311918</v>
+        <v>312392</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>138293</v>
+        <v>137271</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>250210</v>
+        <v>251294</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>378917</v>
+        <v>374791</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>452700</v>
+        <v>450861</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>993499</v>
+        <v>986322</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1455159</v>
+        <v>1467717</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>530755</v>
+        <v>529892</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1084367</v>
+        <v>1080609</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1588866</v>
+        <v>1592583</v>
       </c>
     </row>
     <row r="24">
